--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_101_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_101_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.044356815626961, 5.7449333454166345]</t>
+          <t>[5.036125075841267, 5.753165085202329]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.2370295372832416, 0.15248805030223167]</t>
+          <t>[-0.2369900102614073, 0.15244852328039737]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.664097611052844</v>
+        <v>0.664033740507421</v>
       </c>
       <c r="V2" t="n">
-        <v>0.664097611052844</v>
+        <v>0.664033740507421</v>
       </c>
       <c r="W2" t="n">
         <v>1.690090090090138</v>
